--- a/DataGridViewExport123.xlsx
+++ b/DataGridViewExport123.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\碩論\MasterCode\ControlUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AAE4B8-25CB-46A1-9770-714D25B675E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF988895-84F2-41CD-B742-E307D89A11E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="7">
   <si>
     <t>left</t>
   </si>
@@ -385,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J192"/>
+  <dimension ref="A1:J172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J133"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="K180" sqref="K180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2007,13 +2007,13 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>433.01</v>
+        <v>469.35</v>
       </c>
       <c r="F51">
-        <v>67.400000000000006</v>
+        <v>38.01</v>
       </c>
       <c r="G51">
-        <v>382.9</v>
+        <v>383.48</v>
       </c>
       <c r="H51">
         <v>180</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2039,22 +2039,22 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>466.38</v>
+        <v>449</v>
       </c>
       <c r="F52">
-        <v>72.569999999999993</v>
+        <v>56.11</v>
       </c>
       <c r="G52">
-        <v>385.04</v>
+        <v>174</v>
       </c>
       <c r="H52">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I52">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J52">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2074,19 +2074,19 @@
         <v>449</v>
       </c>
       <c r="F53">
-        <v>-29.28</v>
+        <v>7.09</v>
       </c>
       <c r="G53">
         <v>174</v>
       </c>
       <c r="H53">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I53">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2106,19 +2106,19 @@
         <v>449</v>
       </c>
       <c r="F54">
-        <v>-67.75</v>
+        <v>-15.39</v>
       </c>
       <c r="G54">
         <v>174</v>
       </c>
       <c r="H54">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I54">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2138,19 +2138,19 @@
         <v>449</v>
       </c>
       <c r="F55">
-        <v>-110.15</v>
+        <v>-48.4</v>
       </c>
       <c r="G55">
         <v>174</v>
       </c>
       <c r="H55">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I55">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2170,19 +2170,19 @@
         <v>449</v>
       </c>
       <c r="F56">
-        <v>-159.35</v>
+        <v>-70.150000000000006</v>
       </c>
       <c r="G56">
         <v>174</v>
       </c>
       <c r="H56">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I56">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -2202,19 +2202,19 @@
         <v>449</v>
       </c>
       <c r="F57">
-        <v>-197.57</v>
+        <v>-83.39</v>
       </c>
       <c r="G57">
         <v>174</v>
       </c>
       <c r="H57">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I57">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -2234,19 +2234,19 @@
         <v>449</v>
       </c>
       <c r="F58">
-        <v>-237.97</v>
+        <v>-94.22</v>
       </c>
       <c r="G58">
         <v>174</v>
       </c>
       <c r="H58">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I58">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -2266,19 +2266,19 @@
         <v>449</v>
       </c>
       <c r="F59">
-        <v>-263.07</v>
+        <v>-93.66</v>
       </c>
       <c r="G59">
         <v>174</v>
       </c>
       <c r="H59">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I59">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -2298,19 +2298,19 @@
         <v>449</v>
       </c>
       <c r="F60">
-        <v>-161.28</v>
+        <v>-108.01</v>
       </c>
       <c r="G60">
         <v>174</v>
       </c>
       <c r="H60">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I60">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -2330,19 +2330,19 @@
         <v>449</v>
       </c>
       <c r="F61">
-        <v>-60.46</v>
+        <v>-107.95</v>
       </c>
       <c r="G61">
         <v>174</v>
       </c>
       <c r="H61">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I61">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J61">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -2362,19 +2362,19 @@
         <v>449</v>
       </c>
       <c r="F62">
-        <v>-68.510000000000005</v>
+        <v>-122.6</v>
       </c>
       <c r="G62">
         <v>174</v>
       </c>
       <c r="H62">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I62">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -2394,19 +2394,19 @@
         <v>449</v>
       </c>
       <c r="F63">
-        <v>-69.790000000000006</v>
+        <v>-123.68</v>
       </c>
       <c r="G63">
         <v>174</v>
       </c>
       <c r="H63">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I63">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -2426,19 +2426,19 @@
         <v>449</v>
       </c>
       <c r="F64">
-        <v>-71.72</v>
+        <v>-140.07</v>
       </c>
       <c r="G64">
         <v>174</v>
       </c>
       <c r="H64">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I64">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -2458,19 +2458,19 @@
         <v>449</v>
       </c>
       <c r="F65">
-        <v>-72.459999999999994</v>
+        <v>-139.97999999999999</v>
       </c>
       <c r="G65">
         <v>174</v>
       </c>
       <c r="H65">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I65">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -2490,19 +2490,19 @@
         <v>449</v>
       </c>
       <c r="F66">
-        <v>-72.400000000000006</v>
+        <v>-152.58000000000001</v>
       </c>
       <c r="G66">
         <v>174</v>
       </c>
       <c r="H66">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I66">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -2522,19 +2522,19 @@
         <v>449</v>
       </c>
       <c r="F67">
-        <v>-73.069999999999993</v>
+        <v>-150.22</v>
       </c>
       <c r="G67">
         <v>174</v>
       </c>
       <c r="H67">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I67">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -2554,19 +2554,19 @@
         <v>449</v>
       </c>
       <c r="F68">
-        <v>-73.73</v>
+        <v>-160.82</v>
       </c>
       <c r="G68">
         <v>174</v>
       </c>
       <c r="H68">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I68">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -2586,19 +2586,19 @@
         <v>449</v>
       </c>
       <c r="F69">
-        <v>-73.89</v>
+        <v>-160.30000000000001</v>
       </c>
       <c r="G69">
         <v>174</v>
       </c>
       <c r="H69">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I69">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -2618,45 +2618,45 @@
         <v>449</v>
       </c>
       <c r="F70">
-        <v>-73.95</v>
+        <v>-170.98</v>
       </c>
       <c r="G70">
         <v>174</v>
       </c>
       <c r="H70">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I70">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B71">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C71">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>-170.14</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -2667,25 +2667,25 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B72">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C72">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D72" t="s">
         <v>1</v>
       </c>
       <c r="E72">
-        <v>536</v>
+        <v>449</v>
       </c>
       <c r="F72">
-        <v>-291</v>
+        <v>-180.57</v>
       </c>
       <c r="G72">
-        <v>163.77000000000001</v>
+        <v>174</v>
       </c>
       <c r="H72">
         <v>180</v>
@@ -2694,30 +2694,30 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>179.99999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B73">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C73">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D73" t="s">
         <v>1</v>
       </c>
       <c r="E73">
-        <v>535.79999999999995</v>
+        <v>449</v>
       </c>
       <c r="F73">
-        <v>-290.72000000000003</v>
+        <v>-180.25</v>
       </c>
       <c r="G73">
-        <v>158.83000000000001</v>
+        <v>174</v>
       </c>
       <c r="H73">
         <v>180</v>
@@ -2726,30 +2726,30 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>-270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B74">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C74">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D74" t="s">
         <v>1</v>
       </c>
       <c r="E74">
-        <v>541.4</v>
+        <v>449</v>
       </c>
       <c r="F74">
-        <v>-187.16</v>
+        <v>-187.15</v>
       </c>
       <c r="G74">
-        <v>156.25</v>
+        <v>174</v>
       </c>
       <c r="H74">
         <v>180</v>
@@ -2758,33 +2758,33 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>-270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B75">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C75">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>-188.36</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -2795,25 +2795,25 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B76">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C76">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D76" t="s">
         <v>1</v>
       </c>
       <c r="E76">
-        <v>536</v>
+        <v>449</v>
       </c>
       <c r="F76">
-        <v>-291</v>
+        <v>-192.86</v>
       </c>
       <c r="G76">
-        <v>158.66999999999999</v>
+        <v>174</v>
       </c>
       <c r="H76">
         <v>180</v>
@@ -2822,30 +2822,30 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <v>-270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B77">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D77" t="s">
         <v>1</v>
       </c>
       <c r="E77">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="F77">
-        <v>-291</v>
+        <v>-193.53</v>
       </c>
       <c r="G77">
-        <v>160.77000000000001</v>
+        <v>174</v>
       </c>
       <c r="H77">
         <v>180</v>
@@ -2854,30 +2854,30 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>179.99999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B78">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D78" t="s">
         <v>1</v>
       </c>
       <c r="E78">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="F78">
-        <v>-291</v>
+        <v>-184.52</v>
       </c>
       <c r="G78">
-        <v>141.9</v>
+        <v>174</v>
       </c>
       <c r="H78">
         <v>180</v>
@@ -2886,30 +2886,30 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>179.99999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B79">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D79" t="s">
         <v>1</v>
       </c>
       <c r="E79">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="F79">
-        <v>-291</v>
+        <v>-185.09</v>
       </c>
       <c r="G79">
-        <v>123.99</v>
+        <v>174</v>
       </c>
       <c r="H79">
         <v>180</v>
@@ -2918,30 +2918,30 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>179.99999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B80">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D80" t="s">
         <v>1</v>
       </c>
       <c r="E80">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="F80">
-        <v>-291</v>
+        <v>-161.15</v>
       </c>
       <c r="G80">
-        <v>106.4</v>
+        <v>174</v>
       </c>
       <c r="H80">
         <v>180</v>
@@ -2950,30 +2950,30 @@
         <v>0</v>
       </c>
       <c r="J80">
-        <v>179.99999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B81">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D81" t="s">
         <v>1</v>
       </c>
       <c r="E81">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="F81">
-        <v>-291</v>
+        <v>-162.44999999999999</v>
       </c>
       <c r="G81">
-        <v>87.21</v>
+        <v>174</v>
       </c>
       <c r="H81">
         <v>180</v>
@@ -2982,30 +2982,30 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>179.99999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B82">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C82">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D82" t="s">
         <v>1</v>
       </c>
       <c r="E82">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="F82">
-        <v>-291</v>
+        <v>-127.93</v>
       </c>
       <c r="G82">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="H82">
         <v>180</v>
@@ -3014,30 +3014,30 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>179.99999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B83">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D83" t="s">
         <v>1</v>
       </c>
       <c r="E83">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="F83">
-        <v>-291</v>
+        <v>-130.16</v>
       </c>
       <c r="G83">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="H83">
         <v>180</v>
@@ -3046,30 +3046,30 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>179.99999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B84">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="C84">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D84" t="s">
         <v>1</v>
       </c>
       <c r="E84">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="F84">
-        <v>-291</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="G84">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="H84">
         <v>180</v>
@@ -3078,30 +3078,30 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>179.99999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B85">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D85" t="s">
         <v>1</v>
       </c>
       <c r="E85">
-        <v>536</v>
+        <v>449</v>
       </c>
       <c r="F85">
-        <v>-291</v>
+        <v>-7.97</v>
       </c>
       <c r="G85">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="H85">
         <v>180</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>-270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -3118,31 +3118,31 @@
         <v>0</v>
       </c>
       <c r="B86">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="C86">
         <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E86">
-        <v>536</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>-291</v>
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>-270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="B87">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="C87">
         <v>4</v>
@@ -3159,13 +3159,13 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F87">
         <v>-291</v>
       </c>
       <c r="G87">
-        <v>82</v>
+        <v>168.01</v>
       </c>
       <c r="H87">
         <v>180</v>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>-1.0000000003174099E-5</v>
+        <v>179.99999</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="B88">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -3191,13 +3191,13 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F88">
         <v>-291</v>
       </c>
       <c r="G88">
-        <v>82</v>
+        <v>181.72</v>
       </c>
       <c r="H88">
         <v>180</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>-1.0000000003174099E-5</v>
+        <v>179.99999</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -3214,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="B89">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="C89">
         <v>4</v>
@@ -3223,13 +3223,13 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F89">
         <v>-291</v>
       </c>
       <c r="G89">
-        <v>82</v>
+        <v>175.25</v>
       </c>
       <c r="H89">
         <v>180</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>-1.0000000003174099E-5</v>
+        <v>-270</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -3246,22 +3246,22 @@
         <v>0</v>
       </c>
       <c r="B90">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="C90">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
         <v>1</v>
       </c>
       <c r="E90">
-        <v>538</v>
+        <v>537.28</v>
       </c>
       <c r="F90">
-        <v>-291</v>
+        <v>-186.15</v>
       </c>
       <c r="G90">
-        <v>88.31</v>
+        <v>157.22999999999999</v>
       </c>
       <c r="H90">
         <v>180</v>
@@ -3270,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>-1.0000000003174099E-5</v>
+        <v>-270</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -3278,31 +3278,31 @@
         <v>0</v>
       </c>
       <c r="B91">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E91">
-        <v>538</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>-291</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>122.5</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="B92">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="C92">
         <v>4</v>
@@ -3319,13 +3319,13 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F92">
         <v>-291</v>
       </c>
       <c r="G92">
-        <v>159.34</v>
+        <v>169.19</v>
       </c>
       <c r="H92">
         <v>180</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>-1.0000000003174099E-5</v>
+        <v>-270</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -3342,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="B93">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -3351,13 +3351,13 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F93">
         <v>-291</v>
       </c>
       <c r="G93">
-        <v>154.77000000000001</v>
+        <v>167.52</v>
       </c>
       <c r="H93">
         <v>180</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>89.999992370605</v>
+        <v>179.99999</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -3374,22 +3374,22 @@
         <v>0</v>
       </c>
       <c r="B94">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="C94">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D94" t="s">
         <v>1</v>
       </c>
       <c r="E94">
-        <v>539.37</v>
+        <v>538</v>
       </c>
       <c r="F94">
-        <v>-187.24</v>
+        <v>-291</v>
       </c>
       <c r="G94">
-        <v>156.79</v>
+        <v>153.22</v>
       </c>
       <c r="H94">
         <v>180</v>
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>89.999992370605</v>
+        <v>179.99999</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -3406,31 +3406,31 @@
         <v>0</v>
       </c>
       <c r="B95">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="C95">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D95" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>538</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>-291</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>142.31</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>179.99999</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -3438,31 +3438,31 @@
         <v>0</v>
       </c>
       <c r="B96">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="C96">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D96" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>538</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-291</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>125.78</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>179.99999</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -3470,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="B97">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="C97">
         <v>4</v>
@@ -3479,13 +3479,13 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F97">
         <v>-291</v>
       </c>
       <c r="G97">
-        <v>161.16999999999999</v>
+        <v>107.55</v>
       </c>
       <c r="H97">
         <v>180</v>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>89.999992370605</v>
+        <v>179.99999</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -3502,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="B98">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="C98">
         <v>4</v>
@@ -3511,13 +3511,13 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F98">
         <v>-291</v>
       </c>
       <c r="G98">
-        <v>162.72</v>
+        <v>87.82</v>
       </c>
       <c r="H98">
         <v>180</v>
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="B99">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="C99">
         <v>4</v>
@@ -3543,7 +3543,7 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F99">
         <v>-291</v>
@@ -3566,31 +3566,31 @@
         <v>0</v>
       </c>
       <c r="B100">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="C100">
         <v>4</v>
       </c>
       <c r="D100" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>538</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-291</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>179.99999</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -3598,124 +3598,124 @@
         <v>0</v>
       </c>
       <c r="B101">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="C101">
         <v>4</v>
       </c>
       <c r="D101" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>538</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>-291</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>179.99999</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B102">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D102" t="s">
         <v>1</v>
       </c>
       <c r="E102">
-        <v>449</v>
+        <v>536</v>
       </c>
       <c r="F102">
-        <v>-70.09</v>
+        <v>-291</v>
       </c>
       <c r="G102">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="H102">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I102">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J102">
-        <v>-1.0000000003174099E-5</v>
+        <v>-270</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B103">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D103" t="s">
         <v>1</v>
       </c>
       <c r="E103">
-        <v>449</v>
+        <v>536</v>
       </c>
       <c r="F103">
-        <v>-99.35</v>
+        <v>-291</v>
       </c>
       <c r="G103">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="H103">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I103">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J103">
-        <v>-1.0000000003174099E-5</v>
+        <v>-270</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B104">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D104" t="s">
         <v>1</v>
       </c>
       <c r="E104">
-        <v>449</v>
+        <v>538</v>
       </c>
       <c r="F104">
-        <v>-119.85</v>
+        <v>-291</v>
       </c>
       <c r="G104">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="H104">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I104">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J104">
         <v>-1.0000000003174099E-5</v>
@@ -3723,31 +3723,31 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B105">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D105" t="s">
         <v>1</v>
       </c>
       <c r="E105">
-        <v>449</v>
+        <v>538</v>
       </c>
       <c r="F105">
-        <v>-161.33000000000001</v>
+        <v>-291</v>
       </c>
       <c r="G105">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="H105">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I105">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J105">
         <v>-1.0000000003174099E-5</v>
@@ -3755,31 +3755,31 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B106">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D106" t="s">
         <v>1</v>
       </c>
       <c r="E106">
-        <v>449</v>
+        <v>538</v>
       </c>
       <c r="F106">
-        <v>-178.11</v>
+        <v>-291</v>
       </c>
       <c r="G106">
-        <v>174</v>
+        <v>94.84</v>
       </c>
       <c r="H106">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I106">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J106">
         <v>-1.0000000003174099E-5</v>
@@ -3787,31 +3787,31 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B107">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D107" t="s">
         <v>1</v>
       </c>
       <c r="E107">
-        <v>449</v>
+        <v>538</v>
       </c>
       <c r="F107">
-        <v>-206.19</v>
+        <v>-291</v>
       </c>
       <c r="G107">
-        <v>174</v>
+        <v>124.37</v>
       </c>
       <c r="H107">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I107">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J107">
         <v>-1.0000000003174099E-5</v>
@@ -3819,31 +3819,31 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B108">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D108" t="s">
         <v>1</v>
       </c>
       <c r="E108">
-        <v>449.27</v>
+        <v>538</v>
       </c>
       <c r="F108">
-        <v>-224.52</v>
+        <v>-291</v>
       </c>
       <c r="G108">
-        <v>174.21</v>
+        <v>147.26</v>
       </c>
       <c r="H108">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I108">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J108">
         <v>-1.0000000003174099E-5</v>
@@ -3851,98 +3851,98 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B109">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D109" t="s">
         <v>1</v>
       </c>
       <c r="E109">
-        <v>449</v>
+        <v>536</v>
       </c>
       <c r="F109">
-        <v>-242.2</v>
+        <v>-291</v>
       </c>
       <c r="G109">
-        <v>174</v>
+        <v>175.59</v>
       </c>
       <c r="H109">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I109">
-        <v>-3.1210939999999998E-13</v>
+        <v>-1.001791E-5</v>
       </c>
       <c r="J109">
-        <v>-1.0000000003174099E-5</v>
+        <v>89.999992370605</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B110">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
         <v>1</v>
       </c>
       <c r="E110">
-        <v>449</v>
+        <v>535.32000000000005</v>
       </c>
       <c r="F110">
-        <v>-254.15</v>
+        <v>-188.24</v>
       </c>
       <c r="G110">
-        <v>174</v>
+        <v>160.66</v>
       </c>
       <c r="H110">
-        <v>180.00000341509499</v>
+        <v>180</v>
       </c>
       <c r="I110">
-        <v>-3.1210939999999998E-13</v>
+        <v>-1.001791E-5</v>
       </c>
       <c r="J110">
-        <v>-1.0000000003174099E-5</v>
+        <v>89.999992370605</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B111">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E111">
-        <v>449</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>-67.319999999999993</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>180.00000341509499</v>
+        <v>0</v>
       </c>
       <c r="I111">
-        <v>-3.1210939999999998E-13</v>
+        <v>0</v>
       </c>
       <c r="J111">
-        <v>-1.0000000003174099E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -3950,10 +3950,10 @@
         <v>0</v>
       </c>
       <c r="B112">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="C112">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
         <v>4</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="B113">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C113">
         <v>4</v>
@@ -3997,16 +3997,16 @@
         <v>-291</v>
       </c>
       <c r="G113">
-        <v>160.88</v>
+        <v>161.43</v>
       </c>
       <c r="H113">
         <v>180</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>-1.001791E-5</v>
       </c>
       <c r="J113">
-        <v>179.99999</v>
+        <v>89.999992370605</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="B114">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="C114">
         <v>4</v>
@@ -4029,16 +4029,16 @@
         <v>-291</v>
       </c>
       <c r="G114">
-        <v>159.05000000000001</v>
+        <v>161.53</v>
       </c>
       <c r="H114">
         <v>180</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>-1.001791E-5</v>
       </c>
       <c r="J114">
-        <v>-270</v>
+        <v>179.99999</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -4046,31 +4046,31 @@
         <v>0</v>
       </c>
       <c r="B115">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="C115">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D115" t="s">
         <v>1</v>
       </c>
       <c r="E115">
-        <v>541.42999999999995</v>
+        <v>536</v>
       </c>
       <c r="F115">
-        <v>-186.72</v>
+        <v>-291</v>
       </c>
       <c r="G115">
-        <v>157.27000000000001</v>
+        <v>82</v>
       </c>
       <c r="H115">
         <v>180</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>-1.001791E-5</v>
       </c>
       <c r="J115">
-        <v>-270</v>
+        <v>179.99999</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -4078,13 +4078,13 @@
         <v>0</v>
       </c>
       <c r="B116">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="C116">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D116" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -4110,54 +4110,54 @@
         <v>0</v>
       </c>
       <c r="B117">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="C117">
         <v>4</v>
       </c>
       <c r="D117" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E117">
-        <v>536</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>-291</v>
+        <v>0</v>
       </c>
       <c r="G117">
-        <v>159.52000000000001</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117">
-        <v>-270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B118">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="C118">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D118" t="s">
         <v>1</v>
       </c>
       <c r="E118">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="F118">
-        <v>-291</v>
+        <v>-0.86</v>
       </c>
       <c r="G118">
-        <v>159.63</v>
+        <v>174</v>
       </c>
       <c r="H118">
         <v>180</v>
@@ -4166,30 +4166,30 @@
         <v>0</v>
       </c>
       <c r="J118">
-        <v>179.99999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B119">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="C119">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D119" t="s">
         <v>1</v>
       </c>
       <c r="E119">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="F119">
-        <v>-291</v>
+        <v>-17.11</v>
       </c>
       <c r="G119">
-        <v>142.9</v>
+        <v>174</v>
       </c>
       <c r="H119">
         <v>180</v>
@@ -4198,30 +4198,30 @@
         <v>0</v>
       </c>
       <c r="J119">
-        <v>179.99999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B120">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="C120">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D120" t="s">
         <v>1</v>
       </c>
       <c r="E120">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="F120">
-        <v>-291</v>
+        <v>-17.510000000000002</v>
       </c>
       <c r="G120">
-        <v>122.68</v>
+        <v>174</v>
       </c>
       <c r="H120">
         <v>180</v>
@@ -4230,30 +4230,30 @@
         <v>0</v>
       </c>
       <c r="J120">
-        <v>179.99999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B121">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="C121">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D121" t="s">
         <v>1</v>
       </c>
       <c r="E121">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="F121">
-        <v>-291</v>
+        <v>-33.71</v>
       </c>
       <c r="G121">
-        <v>107.66</v>
+        <v>174</v>
       </c>
       <c r="H121">
         <v>180</v>
@@ -4262,30 +4262,30 @@
         <v>0</v>
       </c>
       <c r="J121">
-        <v>179.99999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B122">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="C122">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D122" t="s">
         <v>1</v>
       </c>
       <c r="E122">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="F122">
-        <v>-291</v>
+        <v>-33.450000000000003</v>
       </c>
       <c r="G122">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="H122">
         <v>180</v>
@@ -4294,30 +4294,30 @@
         <v>0</v>
       </c>
       <c r="J122">
-        <v>179.99999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B123">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="C123">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D123" t="s">
         <v>1</v>
       </c>
       <c r="E123">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="F123">
-        <v>-291</v>
+        <v>-51.14</v>
       </c>
       <c r="G123">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="H123">
         <v>180</v>
@@ -4326,30 +4326,30 @@
         <v>0</v>
       </c>
       <c r="J123">
-        <v>179.99999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B124">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="C124">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D124" t="s">
         <v>1</v>
       </c>
       <c r="E124">
-        <v>538</v>
+        <v>449</v>
       </c>
       <c r="F124">
-        <v>-291</v>
+        <v>-50.77</v>
       </c>
       <c r="G124">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="H124">
         <v>180</v>
@@ -4358,30 +4358,30 @@
         <v>0</v>
       </c>
       <c r="J124">
-        <v>179.99999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B125">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="C125">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D125" t="s">
         <v>1</v>
       </c>
       <c r="E125">
-        <v>536</v>
+        <v>449</v>
       </c>
       <c r="F125">
-        <v>-291</v>
+        <v>-70.510000000000005</v>
       </c>
       <c r="G125">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="H125">
         <v>180</v>
@@ -4390,30 +4390,30 @@
         <v>0</v>
       </c>
       <c r="J125">
-        <v>-270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B126">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="C126">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D126" t="s">
         <v>1</v>
       </c>
       <c r="E126">
-        <v>536</v>
+        <v>449.11</v>
       </c>
       <c r="F126">
-        <v>-291</v>
+        <v>-71.989999999999995</v>
       </c>
       <c r="G126">
-        <v>82</v>
+        <v>174.02</v>
       </c>
       <c r="H126">
         <v>180</v>
@@ -4422,30 +4422,30 @@
         <v>0</v>
       </c>
       <c r="J126">
-        <v>-270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B127">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="C127">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D127" t="s">
         <v>1</v>
       </c>
       <c r="E127">
-        <v>536</v>
+        <v>449</v>
       </c>
       <c r="F127">
-        <v>-291</v>
+        <v>-90.85</v>
       </c>
       <c r="G127">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="H127">
         <v>180</v>
@@ -4454,30 +4454,30 @@
         <v>0</v>
       </c>
       <c r="J127">
-        <v>-270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B128">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="C128">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D128" t="s">
         <v>1</v>
       </c>
       <c r="E128">
-        <v>536</v>
+        <v>449</v>
       </c>
       <c r="F128">
-        <v>-291</v>
+        <v>-107.36</v>
       </c>
       <c r="G128">
-        <v>93.03</v>
+        <v>174</v>
       </c>
       <c r="H128">
         <v>180</v>
@@ -4486,30 +4486,30 @@
         <v>0</v>
       </c>
       <c r="J128">
-        <v>-270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B129">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="C129">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D129" t="s">
         <v>1</v>
       </c>
       <c r="E129">
-        <v>536</v>
+        <v>449</v>
       </c>
       <c r="F129">
-        <v>-291</v>
+        <v>-119.42</v>
       </c>
       <c r="G129">
-        <v>121.45</v>
+        <v>174</v>
       </c>
       <c r="H129">
         <v>180</v>
@@ -4518,30 +4518,30 @@
         <v>0</v>
       </c>
       <c r="J129">
-        <v>-270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B130">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="C130">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D130" t="s">
         <v>1</v>
       </c>
       <c r="E130">
-        <v>536</v>
+        <v>449</v>
       </c>
       <c r="F130">
-        <v>-291</v>
+        <v>-126.9</v>
       </c>
       <c r="G130">
-        <v>162.4</v>
+        <v>174</v>
       </c>
       <c r="H130">
         <v>180</v>
@@ -4550,30 +4550,30 @@
         <v>0</v>
       </c>
       <c r="J130">
-        <v>-270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B131">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="C131">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D131" t="s">
         <v>1</v>
       </c>
       <c r="E131">
-        <v>538.97</v>
+        <v>449</v>
       </c>
       <c r="F131">
-        <v>-189.4</v>
+        <v>-127.74</v>
       </c>
       <c r="G131">
-        <v>153.94</v>
+        <v>174</v>
       </c>
       <c r="H131">
         <v>180</v>
@@ -4582,33 +4582,33 @@
         <v>0</v>
       </c>
       <c r="J131">
-        <v>-270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B132">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C132">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D132" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>-139.19999999999999</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -4619,1214 +4619,1282 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B133">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>449</v>
+      </c>
+      <c r="F133">
+        <v>-139.84</v>
+      </c>
+      <c r="G133">
+        <v>174</v>
+      </c>
+      <c r="H133">
+        <v>180</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>2</v>
+      </c>
+      <c r="B134">
+        <v>52</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1</v>
+      </c>
+      <c r="E134">
+        <v>449</v>
+      </c>
+      <c r="F134">
+        <v>-149.71</v>
+      </c>
+      <c r="G134">
+        <v>174</v>
+      </c>
+      <c r="H134">
+        <v>180</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>2</v>
+      </c>
+      <c r="B135">
+        <v>53</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>449.04</v>
+      </c>
+      <c r="F135">
+        <v>-148.68</v>
+      </c>
+      <c r="G135">
+        <v>173.95</v>
+      </c>
+      <c r="H135">
+        <v>180</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>2</v>
+      </c>
+      <c r="B136">
+        <v>54</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>449</v>
+      </c>
+      <c r="F136">
+        <v>-161.13999999999999</v>
+      </c>
+      <c r="G136">
+        <v>174</v>
+      </c>
+      <c r="H136">
+        <v>180</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>2</v>
+      </c>
+      <c r="B137">
+        <v>55</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>449</v>
+      </c>
+      <c r="F137">
+        <v>-162.07</v>
+      </c>
+      <c r="G137">
+        <v>174</v>
+      </c>
+      <c r="H137">
+        <v>180</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>2</v>
+      </c>
+      <c r="B138">
+        <v>56</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>449</v>
+      </c>
+      <c r="F138">
+        <v>-175.08</v>
+      </c>
+      <c r="G138">
+        <v>174</v>
+      </c>
+      <c r="H138">
+        <v>180</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>2</v>
+      </c>
+      <c r="B139">
+        <v>57</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>449</v>
+      </c>
+      <c r="F139">
+        <v>-175.46</v>
+      </c>
+      <c r="G139">
+        <v>174</v>
+      </c>
+      <c r="H139">
+        <v>180</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>2</v>
+      </c>
+      <c r="B140">
+        <v>58</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>449</v>
+      </c>
+      <c r="F140">
+        <v>-188.44</v>
+      </c>
+      <c r="G140">
+        <v>174</v>
+      </c>
+      <c r="H140">
+        <v>180</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>2</v>
+      </c>
+      <c r="B141">
+        <v>59</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <v>449</v>
+      </c>
+      <c r="F141">
+        <v>-187.62</v>
+      </c>
+      <c r="G141">
+        <v>174</v>
+      </c>
+      <c r="H141">
+        <v>180</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>2</v>
+      </c>
+      <c r="B142">
+        <v>60</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>449</v>
+      </c>
+      <c r="F142">
+        <v>-175.62</v>
+      </c>
+      <c r="G142">
+        <v>174</v>
+      </c>
+      <c r="H142">
+        <v>180</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>2</v>
+      </c>
+      <c r="B143">
+        <v>61</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>449</v>
+      </c>
+      <c r="F143">
+        <v>-175.64</v>
+      </c>
+      <c r="G143">
+        <v>174</v>
+      </c>
+      <c r="H143">
+        <v>180</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>2</v>
+      </c>
+      <c r="B144">
+        <v>62</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <v>449</v>
+      </c>
+      <c r="F144">
+        <v>-151.32</v>
+      </c>
+      <c r="G144">
+        <v>174</v>
+      </c>
+      <c r="H144">
+        <v>180</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>2</v>
+      </c>
+      <c r="B145">
+        <v>63</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>449</v>
+      </c>
+      <c r="F145">
+        <v>-153.11000000000001</v>
+      </c>
+      <c r="G145">
+        <v>174</v>
+      </c>
+      <c r="H145">
+        <v>180</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>2</v>
+      </c>
+      <c r="B146">
+        <v>64</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <v>449</v>
+      </c>
+      <c r="F146">
+        <v>-108</v>
+      </c>
+      <c r="G146">
+        <v>174</v>
+      </c>
+      <c r="H146">
+        <v>180</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>2</v>
+      </c>
+      <c r="B147">
+        <v>65</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1</v>
+      </c>
+      <c r="E147">
+        <v>449</v>
+      </c>
+      <c r="F147">
+        <v>-109.09</v>
+      </c>
+      <c r="G147">
+        <v>174</v>
+      </c>
+      <c r="H147">
+        <v>180</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>2</v>
+      </c>
+      <c r="B148">
+        <v>66</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1</v>
+      </c>
+      <c r="E148">
+        <v>449</v>
+      </c>
+      <c r="F148">
+        <v>-17.5</v>
+      </c>
+      <c r="G148">
+        <v>174</v>
+      </c>
+      <c r="H148">
+        <v>180</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149">
+        <v>44</v>
+      </c>
+      <c r="C149">
+        <v>4</v>
+      </c>
+      <c r="D149" t="s">
+        <v>4</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>0</v>
+      </c>
+      <c r="B150">
+        <v>45</v>
+      </c>
+      <c r="C150">
+        <v>4</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>536</v>
+      </c>
+      <c r="F150">
+        <v>-291</v>
+      </c>
+      <c r="G150">
+        <v>179.54</v>
+      </c>
+      <c r="H150">
+        <v>180</v>
+      </c>
+      <c r="I150">
+        <v>-1.001791E-5</v>
+      </c>
+      <c r="J150">
+        <v>179.99999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151">
+        <v>46</v>
+      </c>
+      <c r="C151">
+        <v>4</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>536</v>
+      </c>
+      <c r="F151">
+        <v>-291</v>
+      </c>
+      <c r="G151">
+        <v>173.74</v>
+      </c>
+      <c r="H151">
+        <v>180</v>
+      </c>
+      <c r="I151">
+        <v>-1.001791E-5</v>
+      </c>
+      <c r="J151">
+        <v>-270</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152">
+        <v>47</v>
+      </c>
+      <c r="C152">
         <v>10</v>
       </c>
-      <c r="D133" t="s">
-        <v>4</v>
-      </c>
-      <c r="E133">
-        <v>0</v>
-      </c>
-      <c r="F133">
-        <v>0</v>
-      </c>
-      <c r="G133">
-        <v>0</v>
-      </c>
-      <c r="H133">
-        <v>0</v>
-      </c>
-      <c r="I133">
-        <v>0</v>
-      </c>
-      <c r="J133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>438</v>
-      </c>
-      <c r="B134">
-        <v>-98</v>
-      </c>
-      <c r="C134">
-        <v>68</v>
-      </c>
-      <c r="D134">
-        <v>-180</v>
-      </c>
-      <c r="E134">
-        <v>0</v>
-      </c>
-      <c r="F134">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>424</v>
-      </c>
-      <c r="B135">
-        <v>-95</v>
-      </c>
-      <c r="C135">
-        <v>68</v>
-      </c>
-      <c r="D135">
-        <v>-180</v>
-      </c>
-      <c r="E135">
-        <v>0</v>
-      </c>
-      <c r="F135">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>418</v>
-      </c>
-      <c r="B136">
-        <v>-92</v>
-      </c>
-      <c r="C136">
-        <v>69</v>
-      </c>
-      <c r="D136">
-        <v>-180</v>
-      </c>
-      <c r="E136">
-        <v>0</v>
-      </c>
-      <c r="F136">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>404</v>
-      </c>
-      <c r="B137">
-        <v>-87</v>
-      </c>
-      <c r="C137">
-        <v>71</v>
-      </c>
-      <c r="D137">
-        <v>-180</v>
-      </c>
-      <c r="E137">
-        <v>0</v>
-      </c>
-      <c r="F137">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>401</v>
-      </c>
-      <c r="B138">
-        <v>-79</v>
-      </c>
-      <c r="C138">
-        <v>71</v>
-      </c>
-      <c r="D138">
-        <v>-180</v>
-      </c>
-      <c r="E138">
-        <v>0</v>
-      </c>
-      <c r="F138">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>397</v>
-      </c>
-      <c r="B139">
-        <v>-78</v>
-      </c>
-      <c r="C139">
-        <v>69</v>
-      </c>
-      <c r="D139">
-        <v>-180</v>
-      </c>
-      <c r="E139">
-        <v>0</v>
-      </c>
-      <c r="F139">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>386</v>
-      </c>
-      <c r="B140">
-        <v>-74</v>
-      </c>
-      <c r="C140">
-        <v>68</v>
-      </c>
-      <c r="D140">
-        <v>-180</v>
-      </c>
-      <c r="E140">
-        <v>0</v>
-      </c>
-      <c r="F140">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>391</v>
-      </c>
-      <c r="B141">
-        <v>-71</v>
-      </c>
-      <c r="C141">
-        <v>69</v>
-      </c>
-      <c r="D141">
-        <v>-180</v>
-      </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-      <c r="F141">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>390</v>
-      </c>
-      <c r="B142">
-        <v>-63</v>
-      </c>
-      <c r="C142">
-        <v>110</v>
-      </c>
-      <c r="D142">
-        <v>-180</v>
-      </c>
-      <c r="E142">
-        <v>0</v>
-      </c>
-      <c r="F142">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>431</v>
-      </c>
-      <c r="B143">
-        <v>-65</v>
-      </c>
-      <c r="C143">
-        <v>112</v>
-      </c>
-      <c r="D143">
-        <v>-180</v>
-      </c>
-      <c r="E143">
-        <v>0</v>
-      </c>
-      <c r="F143">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>462</v>
-      </c>
-      <c r="B144">
-        <v>-66</v>
-      </c>
-      <c r="C144">
-        <v>80</v>
-      </c>
-      <c r="D144">
-        <v>-180</v>
-      </c>
-      <c r="E144">
-        <v>0</v>
-      </c>
-      <c r="F144">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>460</v>
-      </c>
-      <c r="B145">
-        <v>-68</v>
-      </c>
-      <c r="C145">
-        <v>71</v>
-      </c>
-      <c r="D145">
-        <v>-180</v>
-      </c>
-      <c r="E145">
-        <v>0</v>
-      </c>
-      <c r="F145">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>460</v>
-      </c>
-      <c r="B146">
-        <v>-69</v>
-      </c>
-      <c r="C146">
-        <v>68</v>
-      </c>
-      <c r="D146">
-        <v>-180</v>
-      </c>
-      <c r="E146">
-        <v>0</v>
-      </c>
-      <c r="F146">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>461</v>
-      </c>
-      <c r="B147">
-        <v>-77</v>
-      </c>
-      <c r="C147">
+      <c r="D152" t="s">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>539.71</v>
+      </c>
+      <c r="F152">
+        <v>-187.41</v>
+      </c>
+      <c r="G152">
+        <v>157.19999999999999</v>
+      </c>
+      <c r="H152">
+        <v>180</v>
+      </c>
+      <c r="I152">
+        <v>-1.001791E-5</v>
+      </c>
+      <c r="J152">
+        <v>-270</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>0</v>
+      </c>
+      <c r="B153">
+        <v>48</v>
+      </c>
+      <c r="C153">
+        <v>10</v>
+      </c>
+      <c r="D153" t="s">
+        <v>5</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>0</v>
+      </c>
+      <c r="B154">
+        <v>49</v>
+      </c>
+      <c r="C154">
+        <v>4</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1</v>
+      </c>
+      <c r="E154">
+        <v>536</v>
+      </c>
+      <c r="F154">
+        <v>-291</v>
+      </c>
+      <c r="G154">
+        <v>173.97</v>
+      </c>
+      <c r="H154">
+        <v>180</v>
+      </c>
+      <c r="I154">
+        <v>-1.001791E-5</v>
+      </c>
+      <c r="J154">
+        <v>-270</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155">
+        <v>50</v>
+      </c>
+      <c r="C155">
+        <v>4</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <v>538</v>
+      </c>
+      <c r="F155">
+        <v>-291</v>
+      </c>
+      <c r="G155">
+        <v>168.77</v>
+      </c>
+      <c r="H155">
+        <v>180</v>
+      </c>
+      <c r="I155">
+        <v>-1.001791E-5</v>
+      </c>
+      <c r="J155">
+        <v>179.99999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>0</v>
+      </c>
+      <c r="B156">
+        <v>51</v>
+      </c>
+      <c r="C156">
+        <v>4</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1</v>
+      </c>
+      <c r="E156">
+        <v>538</v>
+      </c>
+      <c r="F156">
+        <v>-291</v>
+      </c>
+      <c r="G156">
+        <v>147.75</v>
+      </c>
+      <c r="H156">
+        <v>180</v>
+      </c>
+      <c r="I156">
+        <v>-1.001791E-5</v>
+      </c>
+      <c r="J156">
+        <v>179.99999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157">
+        <v>52</v>
+      </c>
+      <c r="C157">
+        <v>4</v>
+      </c>
+      <c r="D157" t="s">
+        <v>1</v>
+      </c>
+      <c r="E157">
+        <v>538</v>
+      </c>
+      <c r="F157">
+        <v>-291</v>
+      </c>
+      <c r="G157">
+        <v>132.94</v>
+      </c>
+      <c r="H157">
+        <v>180</v>
+      </c>
+      <c r="I157">
+        <v>-1.001791E-5</v>
+      </c>
+      <c r="J157">
+        <v>179.99999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158">
+        <v>53</v>
+      </c>
+      <c r="C158">
+        <v>4</v>
+      </c>
+      <c r="D158" t="s">
+        <v>1</v>
+      </c>
+      <c r="E158">
+        <v>538</v>
+      </c>
+      <c r="F158">
+        <v>-291</v>
+      </c>
+      <c r="G158">
+        <v>110.56</v>
+      </c>
+      <c r="H158">
+        <v>180</v>
+      </c>
+      <c r="I158">
+        <v>-1.001791E-5</v>
+      </c>
+      <c r="J158">
+        <v>179.99999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>0</v>
+      </c>
+      <c r="B159">
+        <v>54</v>
+      </c>
+      <c r="C159">
+        <v>4</v>
+      </c>
+      <c r="D159" t="s">
+        <v>1</v>
+      </c>
+      <c r="E159">
+        <v>538</v>
+      </c>
+      <c r="F159">
+        <v>-291</v>
+      </c>
+      <c r="G159">
+        <v>91.59</v>
+      </c>
+      <c r="H159">
+        <v>180</v>
+      </c>
+      <c r="I159">
+        <v>-1.001791E-5</v>
+      </c>
+      <c r="J159">
+        <v>179.99999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>0</v>
+      </c>
+      <c r="B160">
+        <v>55</v>
+      </c>
+      <c r="C160">
+        <v>4</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1</v>
+      </c>
+      <c r="E160">
+        <v>538</v>
+      </c>
+      <c r="F160">
+        <v>-291</v>
+      </c>
+      <c r="G160">
+        <v>82</v>
+      </c>
+      <c r="H160">
+        <v>180</v>
+      </c>
+      <c r="I160">
+        <v>-1.001791E-5</v>
+      </c>
+      <c r="J160">
+        <v>179.99999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>0</v>
+      </c>
+      <c r="B161">
+        <v>56</v>
+      </c>
+      <c r="C161">
+        <v>4</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1</v>
+      </c>
+      <c r="E161">
+        <v>538</v>
+      </c>
+      <c r="F161">
+        <v>-291</v>
+      </c>
+      <c r="G161">
+        <v>82</v>
+      </c>
+      <c r="H161">
+        <v>180</v>
+      </c>
+      <c r="I161">
+        <v>-1.001791E-5</v>
+      </c>
+      <c r="J161">
+        <v>179.99999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>0</v>
+      </c>
+      <c r="B162">
+        <v>57</v>
+      </c>
+      <c r="C162">
+        <v>4</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1</v>
+      </c>
+      <c r="E162">
+        <v>536</v>
+      </c>
+      <c r="F162">
+        <v>-291</v>
+      </c>
+      <c r="G162">
+        <v>82</v>
+      </c>
+      <c r="H162">
+        <v>180</v>
+      </c>
+      <c r="I162">
+        <v>-1.001791E-5</v>
+      </c>
+      <c r="J162">
+        <v>-270</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163">
+        <v>58</v>
+      </c>
+      <c r="C163">
+        <v>4</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1</v>
+      </c>
+      <c r="E163">
+        <v>536</v>
+      </c>
+      <c r="F163">
+        <v>-291</v>
+      </c>
+      <c r="G163">
+        <v>82</v>
+      </c>
+      <c r="H163">
+        <v>180</v>
+      </c>
+      <c r="I163">
+        <v>-1.001791E-5</v>
+      </c>
+      <c r="J163">
+        <v>-270</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>0</v>
+      </c>
+      <c r="B164">
+        <v>59</v>
+      </c>
+      <c r="C164">
+        <v>4</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1</v>
+      </c>
+      <c r="E164">
+        <v>536</v>
+      </c>
+      <c r="F164">
+        <v>-291</v>
+      </c>
+      <c r="G164">
+        <v>82</v>
+      </c>
+      <c r="H164">
+        <v>180</v>
+      </c>
+      <c r="I164">
+        <v>-1.001791E-5</v>
+      </c>
+      <c r="J164">
+        <v>-270</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>0</v>
+      </c>
+      <c r="B165">
+        <v>60</v>
+      </c>
+      <c r="C165">
+        <v>4</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1</v>
+      </c>
+      <c r="E165">
+        <v>536</v>
+      </c>
+      <c r="F165">
+        <v>-291</v>
+      </c>
+      <c r="G165">
+        <v>110.45</v>
+      </c>
+      <c r="H165">
+        <v>180</v>
+      </c>
+      <c r="I165">
+        <v>-1.001791E-5</v>
+      </c>
+      <c r="J165">
+        <v>-270</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>0</v>
+      </c>
+      <c r="B166">
+        <v>61</v>
+      </c>
+      <c r="C166">
+        <v>4</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1</v>
+      </c>
+      <c r="E166">
+        <v>536</v>
+      </c>
+      <c r="F166">
+        <v>-291</v>
+      </c>
+      <c r="G166">
+        <v>128.88</v>
+      </c>
+      <c r="H166">
+        <v>180</v>
+      </c>
+      <c r="I166">
+        <v>-1.001791E-5</v>
+      </c>
+      <c r="J166">
+        <v>-270</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167">
+        <v>62</v>
+      </c>
+      <c r="C167">
+        <v>4</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1</v>
+      </c>
+      <c r="E167">
+        <v>536</v>
+      </c>
+      <c r="F167">
+        <v>-291</v>
+      </c>
+      <c r="G167">
+        <v>156.08000000000001</v>
+      </c>
+      <c r="H167">
+        <v>180</v>
+      </c>
+      <c r="I167">
+        <v>-1.001791E-5</v>
+      </c>
+      <c r="J167">
+        <v>-270</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>0</v>
+      </c>
+      <c r="B168">
+        <v>63</v>
+      </c>
+      <c r="C168">
+        <v>10</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1</v>
+      </c>
+      <c r="E168">
+        <v>535.14</v>
+      </c>
+      <c r="F168">
+        <v>-189.42</v>
+      </c>
+      <c r="G168">
+        <v>156.66</v>
+      </c>
+      <c r="H168">
+        <v>180</v>
+      </c>
+      <c r="I168">
+        <v>-1.001791E-5</v>
+      </c>
+      <c r="J168">
+        <v>-270</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>0</v>
+      </c>
+      <c r="B169">
+        <v>64</v>
+      </c>
+      <c r="C169">
+        <v>10</v>
+      </c>
+      <c r="D169" t="s">
+        <v>5</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170">
+        <v>65</v>
+      </c>
+      <c r="C170">
+        <v>10</v>
+      </c>
+      <c r="D170" t="s">
+        <v>4</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>0</v>
+      </c>
+      <c r="B171">
+        <v>66</v>
+      </c>
+      <c r="C171">
+        <v>5</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1</v>
+      </c>
+      <c r="E171">
+        <v>238.46</v>
+      </c>
+      <c r="F171">
+        <v>-287.70999999999998</v>
+      </c>
+      <c r="G171">
+        <v>157.02000000000001</v>
+      </c>
+      <c r="H171">
+        <v>180</v>
+      </c>
+      <c r="I171">
+        <v>-1.001791E-5</v>
+      </c>
+      <c r="J171">
+        <v>-270</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>0</v>
+      </c>
+      <c r="B172">
         <v>67</v>
       </c>
-      <c r="D147">
-        <v>-180</v>
-      </c>
-      <c r="E147">
-        <v>0</v>
-      </c>
-      <c r="F147">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>464</v>
-      </c>
-      <c r="B148">
-        <v>-88</v>
-      </c>
-      <c r="C148">
-        <v>67</v>
-      </c>
-      <c r="D148">
-        <v>-180</v>
-      </c>
-      <c r="E148">
-        <v>0</v>
-      </c>
-      <c r="F148">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>463</v>
-      </c>
-      <c r="B149">
-        <v>-100</v>
-      </c>
-      <c r="C149">
-        <v>68</v>
-      </c>
-      <c r="D149">
-        <v>-180</v>
-      </c>
-      <c r="E149">
-        <v>0</v>
-      </c>
-      <c r="F149">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>468</v>
-      </c>
-      <c r="B150">
-        <v>-107</v>
-      </c>
-      <c r="C150">
-        <v>68</v>
-      </c>
-      <c r="D150">
-        <v>-180</v>
-      </c>
-      <c r="E150">
-        <v>0</v>
-      </c>
-      <c r="F150">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>471</v>
-      </c>
-      <c r="B151">
-        <v>-112</v>
-      </c>
-      <c r="C151">
-        <v>70</v>
-      </c>
-      <c r="D151">
-        <v>-180</v>
-      </c>
-      <c r="E151">
-        <v>0</v>
-      </c>
-      <c r="F151">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>471</v>
-      </c>
-      <c r="B152">
-        <v>-112</v>
-      </c>
-      <c r="C152">
-        <v>74</v>
-      </c>
-      <c r="D152">
-        <v>-180</v>
-      </c>
-      <c r="E152">
-        <v>0</v>
-      </c>
-      <c r="F152">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>470</v>
-      </c>
-      <c r="B153">
-        <v>-102</v>
-      </c>
-      <c r="C153">
-        <v>106</v>
-      </c>
-      <c r="D153">
-        <v>-180</v>
-      </c>
-      <c r="E153">
-        <v>0</v>
-      </c>
-      <c r="F153">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>498</v>
-      </c>
-      <c r="B154">
-        <v>-116</v>
-      </c>
-      <c r="C154">
-        <v>91</v>
-      </c>
-      <c r="D154">
-        <v>-180</v>
-      </c>
-      <c r="E154">
-        <v>0</v>
-      </c>
-      <c r="F154">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>506</v>
-      </c>
-      <c r="B155">
-        <v>-118</v>
-      </c>
-      <c r="C155">
-        <v>77</v>
-      </c>
-      <c r="D155">
-        <v>-180</v>
-      </c>
-      <c r="E155">
-        <v>0</v>
-      </c>
-      <c r="F155">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>508</v>
-      </c>
-      <c r="B156">
-        <v>-119</v>
-      </c>
-      <c r="C156">
-        <v>71</v>
-      </c>
-      <c r="D156">
-        <v>-180</v>
-      </c>
-      <c r="E156">
-        <v>0</v>
-      </c>
-      <c r="F156">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>510</v>
-      </c>
-      <c r="B157">
-        <v>-117</v>
-      </c>
-      <c r="C157">
-        <v>69</v>
-      </c>
-      <c r="D157">
-        <v>-180</v>
-      </c>
-      <c r="E157">
-        <v>0</v>
-      </c>
-      <c r="F157">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>513</v>
-      </c>
-      <c r="B158">
-        <v>-124</v>
-      </c>
-      <c r="C158">
-        <v>68</v>
-      </c>
-      <c r="D158">
-        <v>-180</v>
-      </c>
-      <c r="E158">
-        <v>0</v>
-      </c>
-      <c r="F158">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>517</v>
-      </c>
-      <c r="B159">
-        <v>-132</v>
-      </c>
-      <c r="C159">
-        <v>68</v>
-      </c>
-      <c r="D159">
-        <v>-180</v>
-      </c>
-      <c r="E159">
-        <v>0</v>
-      </c>
-      <c r="F159">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>523</v>
-      </c>
-      <c r="B160">
-        <v>-138</v>
-      </c>
-      <c r="C160">
-        <v>69</v>
-      </c>
-      <c r="D160">
-        <v>-180</v>
-      </c>
-      <c r="E160">
-        <v>0</v>
-      </c>
-      <c r="F160">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>521</v>
-      </c>
-      <c r="B161">
-        <v>-143</v>
-      </c>
-      <c r="C161">
-        <v>70</v>
-      </c>
-      <c r="D161">
-        <v>-180</v>
-      </c>
-      <c r="E161">
-        <v>0</v>
-      </c>
-      <c r="F161">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>519</v>
-      </c>
-      <c r="B162">
-        <v>-146</v>
-      </c>
-      <c r="C162">
-        <v>71</v>
-      </c>
-      <c r="D162">
-        <v>-180</v>
-      </c>
-      <c r="E162">
-        <v>0</v>
-      </c>
-      <c r="F162">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>512</v>
-      </c>
-      <c r="B163">
-        <v>-142</v>
-      </c>
-      <c r="C163">
-        <v>71</v>
-      </c>
-      <c r="D163">
-        <v>-180</v>
-      </c>
-      <c r="E163">
-        <v>0</v>
-      </c>
-      <c r="F163">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>510</v>
-      </c>
-      <c r="B164">
-        <v>-142</v>
-      </c>
-      <c r="C164">
-        <v>68</v>
-      </c>
-      <c r="D164">
-        <v>-180</v>
-      </c>
-      <c r="E164">
-        <v>0</v>
-      </c>
-      <c r="F164">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>500</v>
-      </c>
-      <c r="B165">
-        <v>-138</v>
-      </c>
-      <c r="C165">
-        <v>68</v>
-      </c>
-      <c r="D165">
-        <v>-180</v>
-      </c>
-      <c r="E165">
-        <v>0</v>
-      </c>
-      <c r="F165">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>492</v>
-      </c>
-      <c r="B166">
-        <v>-132</v>
-      </c>
-      <c r="C166">
-        <v>66</v>
-      </c>
-      <c r="D166">
-        <v>-180</v>
-      </c>
-      <c r="E166">
-        <v>0</v>
-      </c>
-      <c r="F166">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>489</v>
-      </c>
-      <c r="B167">
-        <v>-131</v>
-      </c>
-      <c r="C167">
-        <v>68</v>
-      </c>
-      <c r="D167">
-        <v>-180</v>
-      </c>
-      <c r="E167">
-        <v>0</v>
-      </c>
-      <c r="F167">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>482</v>
-      </c>
-      <c r="B168">
-        <v>-133</v>
-      </c>
-      <c r="C168">
-        <v>66</v>
-      </c>
-      <c r="D168">
-        <v>-180</v>
-      </c>
-      <c r="E168">
-        <v>0</v>
-      </c>
-      <c r="F168">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>469</v>
-      </c>
-      <c r="B169">
-        <v>-132</v>
-      </c>
-      <c r="C169">
-        <v>67</v>
-      </c>
-      <c r="D169">
-        <v>-180</v>
-      </c>
-      <c r="E169">
-        <v>0</v>
-      </c>
-      <c r="F169">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>463</v>
-      </c>
-      <c r="B170">
-        <v>-133</v>
-      </c>
-      <c r="C170">
-        <v>67</v>
-      </c>
-      <c r="D170">
-        <v>-180</v>
-      </c>
-      <c r="E170">
-        <v>0</v>
-      </c>
-      <c r="F170">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>449</v>
-      </c>
-      <c r="B171">
-        <v>-132</v>
-      </c>
-      <c r="C171">
-        <v>71</v>
-      </c>
-      <c r="D171">
-        <v>-180</v>
-      </c>
-      <c r="E171">
-        <v>0</v>
-      </c>
-      <c r="F171">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>440</v>
-      </c>
-      <c r="B172">
-        <v>-134</v>
-      </c>
       <c r="C172">
-        <v>70</v>
-      </c>
-      <c r="D172">
-        <v>-180</v>
+        <v>5</v>
+      </c>
+      <c r="D172" t="s">
+        <v>3</v>
       </c>
       <c r="E172">
         <v>0</v>
       </c>
       <c r="F172">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>432</v>
-      </c>
-      <c r="B173">
-        <v>-134</v>
-      </c>
-      <c r="C173">
-        <v>67</v>
-      </c>
-      <c r="D173">
-        <v>-180</v>
-      </c>
-      <c r="E173">
-        <v>0</v>
-      </c>
-      <c r="F173">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>421</v>
-      </c>
-      <c r="B174">
-        <v>-135</v>
-      </c>
-      <c r="C174">
-        <v>66</v>
-      </c>
-      <c r="D174">
-        <v>-180</v>
-      </c>
-      <c r="E174">
-        <v>0</v>
-      </c>
-      <c r="F174">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>404</v>
-      </c>
-      <c r="B175">
-        <v>-134</v>
-      </c>
-      <c r="C175">
-        <v>67</v>
-      </c>
-      <c r="D175">
-        <v>-180</v>
-      </c>
-      <c r="E175">
-        <v>0</v>
-      </c>
-      <c r="F175">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>392</v>
-      </c>
-      <c r="B176">
-        <v>-135</v>
-      </c>
-      <c r="C176">
-        <v>67</v>
-      </c>
-      <c r="D176">
-        <v>-180</v>
-      </c>
-      <c r="E176">
-        <v>0</v>
-      </c>
-      <c r="F176">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>384</v>
-      </c>
-      <c r="B177">
-        <v>-133</v>
-      </c>
-      <c r="C177">
-        <v>69</v>
-      </c>
-      <c r="D177">
-        <v>-180</v>
-      </c>
-      <c r="E177">
-        <v>0</v>
-      </c>
-      <c r="F177">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>390</v>
-      </c>
-      <c r="B178">
-        <v>-126</v>
-      </c>
-      <c r="C178">
-        <v>67</v>
-      </c>
-      <c r="D178">
-        <v>-180</v>
-      </c>
-      <c r="E178">
-        <v>0</v>
-      </c>
-      <c r="F178">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>395</v>
-      </c>
-      <c r="B179">
-        <v>-121</v>
-      </c>
-      <c r="C179">
-        <v>67</v>
-      </c>
-      <c r="D179">
-        <v>-180</v>
-      </c>
-      <c r="E179">
-        <v>0</v>
-      </c>
-      <c r="F179">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>390</v>
-      </c>
-      <c r="B180">
-        <v>-115</v>
-      </c>
-      <c r="C180">
-        <v>109</v>
-      </c>
-      <c r="D180">
-        <v>-180</v>
-      </c>
-      <c r="E180">
-        <v>0</v>
-      </c>
-      <c r="F180">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>440</v>
-      </c>
-      <c r="B181">
-        <v>-114</v>
-      </c>
-      <c r="C181">
-        <v>101</v>
-      </c>
-      <c r="D181">
-        <v>-180</v>
-      </c>
-      <c r="E181">
-        <v>0</v>
-      </c>
-      <c r="F181">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>449</v>
-      </c>
-      <c r="B182">
-        <v>-113</v>
-      </c>
-      <c r="C182">
-        <v>75</v>
-      </c>
-      <c r="D182">
-        <v>-180</v>
-      </c>
-      <c r="E182">
-        <v>0</v>
-      </c>
-      <c r="F182">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>450</v>
-      </c>
-      <c r="B183">
-        <v>-115</v>
-      </c>
-      <c r="C183">
-        <v>69</v>
-      </c>
-      <c r="D183">
-        <v>-180</v>
-      </c>
-      <c r="E183">
-        <v>0</v>
-      </c>
-      <c r="F183">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>450</v>
-      </c>
-      <c r="B184">
-        <v>-118</v>
-      </c>
-      <c r="C184">
-        <v>67</v>
-      </c>
-      <c r="D184">
-        <v>-180</v>
-      </c>
-      <c r="E184">
-        <v>0</v>
-      </c>
-      <c r="F184">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>452</v>
-      </c>
-      <c r="B185">
-        <v>-126</v>
-      </c>
-      <c r="C185">
-        <v>68</v>
-      </c>
-      <c r="D185">
-        <v>-180</v>
-      </c>
-      <c r="E185">
-        <v>0</v>
-      </c>
-      <c r="F185">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>455</v>
-      </c>
-      <c r="B186">
-        <v>-136</v>
-      </c>
-      <c r="C186">
-        <v>69</v>
-      </c>
-      <c r="D186">
-        <v>-180</v>
-      </c>
-      <c r="E186">
-        <v>0</v>
-      </c>
-      <c r="F186">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>460</v>
-      </c>
-      <c r="B187">
-        <v>-151</v>
-      </c>
-      <c r="C187">
-        <v>68</v>
-      </c>
-      <c r="D187">
-        <v>-180</v>
-      </c>
-      <c r="E187">
-        <v>0</v>
-      </c>
-      <c r="F187">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>461</v>
-      </c>
-      <c r="B188">
-        <v>-158</v>
-      </c>
-      <c r="C188">
-        <v>68</v>
-      </c>
-      <c r="D188">
-        <v>-180</v>
-      </c>
-      <c r="E188">
-        <v>0</v>
-      </c>
-      <c r="F188">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>460</v>
-      </c>
-      <c r="B189">
-        <v>-164</v>
-      </c>
-      <c r="C189">
-        <v>69</v>
-      </c>
-      <c r="D189">
-        <v>-180</v>
-      </c>
-      <c r="E189">
-        <v>0</v>
-      </c>
-      <c r="F189">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>467</v>
-      </c>
-      <c r="B190">
-        <v>-162</v>
-      </c>
-      <c r="C190">
-        <v>94</v>
-      </c>
-      <c r="D190">
-        <v>-180</v>
-      </c>
-      <c r="E190">
-        <v>0</v>
-      </c>
-      <c r="F190">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>443</v>
-      </c>
-      <c r="B191">
-        <v>-154</v>
-      </c>
-      <c r="C191">
-        <v>186</v>
-      </c>
-      <c r="D191">
-        <v>-180</v>
-      </c>
-      <c r="E191">
-        <v>0</v>
-      </c>
-      <c r="F191">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>449</v>
-      </c>
-      <c r="B192">
-        <v>-57</v>
-      </c>
-      <c r="C192">
-        <v>215</v>
-      </c>
-      <c r="D192">
-        <v>-180</v>
-      </c>
-      <c r="E192">
-        <v>0</v>
-      </c>
-      <c r="F192">
-        <v>90</v>
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
